--- a/data/pca/factorExposure/factorExposure_2014-12-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01573959540490249</v>
+        <v>0.01160399094059881</v>
       </c>
       <c r="C2">
-        <v>0.03278823865480144</v>
+        <v>-0.05352923044744552</v>
       </c>
       <c r="D2">
-        <v>0.1324029867181461</v>
+        <v>-0.06438062099339084</v>
       </c>
       <c r="E2">
-        <v>-0.1130521563139538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.1005730737176664</v>
+      </c>
+      <c r="F2">
+        <v>0.1501670018658633</v>
+      </c>
+      <c r="G2">
+        <v>-0.05322461170839091</v>
+      </c>
+      <c r="H2">
+        <v>-0.05186148575158691</v>
+      </c>
+      <c r="I2">
+        <v>0.03969185315598785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04525366943100723</v>
+        <v>0.02111873948073264</v>
       </c>
       <c r="C4">
-        <v>0.1183559878811512</v>
+        <v>-0.1424819865794673</v>
       </c>
       <c r="D4">
-        <v>0.09860751045435902</v>
+        <v>-0.028156948220564</v>
       </c>
       <c r="E4">
-        <v>-0.09725143116978215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.07735659831459007</v>
+      </c>
+      <c r="F4">
+        <v>0.1054898393729839</v>
+      </c>
+      <c r="G4">
+        <v>0.05922274454563072</v>
+      </c>
+      <c r="H4">
+        <v>0.02160966743282886</v>
+      </c>
+      <c r="I4">
+        <v>0.07771571739637234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02156073509538348</v>
+        <v>0.0299565230211555</v>
       </c>
       <c r="C6">
-        <v>0.04636553879720268</v>
+        <v>-0.0569913203309999</v>
       </c>
       <c r="D6">
-        <v>0.08272507431648532</v>
+        <v>-0.03764282909787876</v>
       </c>
       <c r="E6">
-        <v>-0.04126634955938344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.0885902989994881</v>
+      </c>
+      <c r="F6">
+        <v>0.05487107708810877</v>
+      </c>
+      <c r="G6">
+        <v>-0.04205111007825322</v>
+      </c>
+      <c r="H6">
+        <v>0.04236306546708129</v>
+      </c>
+      <c r="I6">
+        <v>0.02217957544433188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.007520107249759297</v>
+        <v>0.006668089391862376</v>
       </c>
       <c r="C7">
-        <v>0.03692130174596742</v>
+        <v>-0.05417975887809887</v>
       </c>
       <c r="D7">
-        <v>0.06390517753686609</v>
+        <v>-0.03472234865876463</v>
       </c>
       <c r="E7">
-        <v>-0.01692103657767639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.07132603888338478</v>
+      </c>
+      <c r="F7">
+        <v>0.008279877016931073</v>
+      </c>
+      <c r="G7">
+        <v>0.0186438582016746</v>
+      </c>
+      <c r="H7">
+        <v>0.04430059619168898</v>
+      </c>
+      <c r="I7">
+        <v>0.08116076987660925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002188759086855811</v>
+        <v>-0.006695851733960299</v>
       </c>
       <c r="C8">
-        <v>0.04968517138585433</v>
+        <v>-0.05899149913800939</v>
       </c>
       <c r="D8">
-        <v>0.08067606370714557</v>
+        <v>-0.01513381403786825</v>
       </c>
       <c r="E8">
-        <v>-0.0613294644156368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0662912709231252</v>
+      </c>
+      <c r="F8">
+        <v>0.08413132018011331</v>
+      </c>
+      <c r="G8">
+        <v>0.03013096779821377</v>
+      </c>
+      <c r="H8">
+        <v>-0.05031243857498187</v>
+      </c>
+      <c r="I8">
+        <v>0.02489720121213046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.02663038427706011</v>
+        <v>0.01223154915510547</v>
       </c>
       <c r="C9">
-        <v>0.09719784252850196</v>
+        <v>-0.114021947663252</v>
       </c>
       <c r="D9">
-        <v>0.08564091324959594</v>
+        <v>-0.0276078990614609</v>
       </c>
       <c r="E9">
-        <v>-0.06744878751376036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0653841636056442</v>
+      </c>
+      <c r="F9">
+        <v>0.06873762176260113</v>
+      </c>
+      <c r="G9">
+        <v>0.008249168473915082</v>
+      </c>
+      <c r="H9">
+        <v>0.03924439488987259</v>
+      </c>
+      <c r="I9">
+        <v>0.08293366557383144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2208370073197073</v>
+        <v>0.2424177792356164</v>
       </c>
       <c r="C10">
-        <v>-0.1167485991452905</v>
+        <v>0.08483234124460974</v>
       </c>
       <c r="D10">
-        <v>-0.04382746169238194</v>
+        <v>0.01715684946511514</v>
       </c>
       <c r="E10">
-        <v>-0.02984831696272429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02337577014624281</v>
+      </c>
+      <c r="F10">
+        <v>0.01196090460553344</v>
+      </c>
+      <c r="G10">
+        <v>0.006571700152047709</v>
+      </c>
+      <c r="H10">
+        <v>0.02939917878405645</v>
+      </c>
+      <c r="I10">
+        <v>0.02529198282577692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01032255032644591</v>
+        <v>0.01225780243595925</v>
       </c>
       <c r="C11">
-        <v>0.04259410713135504</v>
+        <v>-0.06604878839716999</v>
       </c>
       <c r="D11">
-        <v>0.04700566869019403</v>
+        <v>-0.01478991591899333</v>
       </c>
       <c r="E11">
-        <v>-0.009245620416714201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.05443616869849609</v>
+      </c>
+      <c r="F11">
+        <v>0.004087379004227219</v>
+      </c>
+      <c r="G11">
+        <v>0.01422599862469035</v>
+      </c>
+      <c r="H11">
+        <v>0.03212140410430301</v>
+      </c>
+      <c r="I11">
+        <v>0.03984287041221737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01441419606401453</v>
+        <v>0.01444898811293804</v>
       </c>
       <c r="C12">
-        <v>0.04382241965419251</v>
+        <v>-0.05552699905613501</v>
       </c>
       <c r="D12">
-        <v>0.04874701501192765</v>
+        <v>-0.02134812140406446</v>
       </c>
       <c r="E12">
-        <v>-0.003785640815885131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04162851689416655</v>
+      </c>
+      <c r="F12">
+        <v>-0.005408432051817958</v>
+      </c>
+      <c r="G12">
+        <v>-0.01424749220169704</v>
+      </c>
+      <c r="H12">
+        <v>0.02848883401983683</v>
+      </c>
+      <c r="I12">
+        <v>0.04485288931482962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.01808027792535367</v>
+        <v>0.005220231029733451</v>
       </c>
       <c r="C13">
-        <v>0.05568958805235671</v>
+        <v>-0.0926096719278108</v>
       </c>
       <c r="D13">
-        <v>0.1266950647744696</v>
+        <v>-0.07752558834704229</v>
       </c>
       <c r="E13">
-        <v>-0.03338386890052801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.1207620550937011</v>
+      </c>
+      <c r="F13">
+        <v>0.04702600165499956</v>
+      </c>
+      <c r="G13">
+        <v>-0.10241264986968</v>
+      </c>
+      <c r="H13">
+        <v>0.04091519379775765</v>
+      </c>
+      <c r="I13">
+        <v>0.08762266648305393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.003717634255784035</v>
+        <v>0.006086264530765608</v>
       </c>
       <c r="C14">
-        <v>0.02179458135993062</v>
+        <v>-0.04927311298365933</v>
       </c>
       <c r="D14">
-        <v>0.05872374508906025</v>
+        <v>-0.02072044807594333</v>
       </c>
       <c r="E14">
-        <v>-0.01235916573332554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.1051060723827219</v>
+      </c>
+      <c r="F14">
+        <v>0.02047820820558886</v>
+      </c>
+      <c r="G14">
+        <v>-0.03528994754013359</v>
+      </c>
+      <c r="H14">
+        <v>0.06764814675760684</v>
+      </c>
+      <c r="I14">
+        <v>0.1413264377677236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001035045777444502</v>
+        <v>-0.003887004612634814</v>
       </c>
       <c r="C15">
-        <v>0.0263427233533454</v>
+        <v>-0.04875796849334866</v>
       </c>
       <c r="D15">
-        <v>0.07662893892524153</v>
+        <v>-0.03213097622772138</v>
       </c>
       <c r="E15">
-        <v>-0.04092921701466839</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.07644255473171757</v>
+      </c>
+      <c r="F15">
+        <v>0.01748093229160989</v>
+      </c>
+      <c r="G15">
+        <v>0.00896539001336368</v>
+      </c>
+      <c r="H15">
+        <v>0.007850125914881597</v>
+      </c>
+      <c r="I15">
+        <v>0.05733958128807477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.00941685020336964</v>
+        <v>0.01093453772315576</v>
       </c>
       <c r="C16">
-        <v>0.03883809152007316</v>
+        <v>-0.05634503832379976</v>
       </c>
       <c r="D16">
-        <v>0.039643098015938</v>
+        <v>-0.0183820261958204</v>
       </c>
       <c r="E16">
-        <v>-0.009503469909701332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.04028412532832678</v>
+      </c>
+      <c r="F16">
+        <v>-0.0008577101024471815</v>
+      </c>
+      <c r="G16">
+        <v>-0.001142370292370376</v>
+      </c>
+      <c r="H16">
+        <v>0.0370135668987527</v>
+      </c>
+      <c r="I16">
+        <v>0.03861618487908136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.01075042035818056</v>
+        <v>0.004239621142444992</v>
       </c>
       <c r="C19">
-        <v>0.01516811127800247</v>
+        <v>-0.01219871973675759</v>
       </c>
       <c r="D19">
-        <v>0.02524701434550066</v>
+        <v>-0.0003956476524632083</v>
       </c>
       <c r="E19">
-        <v>0.02314544977336655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01095837240885254</v>
+      </c>
+      <c r="F19">
+        <v>-0.00810715598487515</v>
+      </c>
+      <c r="G19">
+        <v>-0.005405204954294603</v>
+      </c>
+      <c r="H19">
+        <v>-0.02237780223736081</v>
+      </c>
+      <c r="I19">
+        <v>0.02591195655242496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.001335619236560726</v>
+        <v>0.00261751687093421</v>
       </c>
       <c r="C20">
-        <v>0.04086516461473144</v>
+        <v>-0.0640824023453713</v>
       </c>
       <c r="D20">
-        <v>0.06432002911831668</v>
+        <v>-0.03530512856664612</v>
       </c>
       <c r="E20">
-        <v>-0.05037399370812631</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.06712127718514103</v>
+      </c>
+      <c r="F20">
+        <v>0.008152701297676217</v>
+      </c>
+      <c r="G20">
+        <v>0.01699629266944696</v>
+      </c>
+      <c r="H20">
+        <v>0.06522672728360131</v>
+      </c>
+      <c r="I20">
+        <v>0.06440954968023654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01878212561957885</v>
+        <v>0.009982665487569754</v>
       </c>
       <c r="C21">
-        <v>0.06084894131329471</v>
+        <v>-0.07120157605509751</v>
       </c>
       <c r="D21">
-        <v>0.08825296057076588</v>
+        <v>-0.02597742570057673</v>
       </c>
       <c r="E21">
-        <v>-0.06479369470506845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.08245334162095524</v>
+      </c>
+      <c r="F21">
+        <v>0.06672474890210302</v>
+      </c>
+      <c r="G21">
+        <v>-0.09953783226932446</v>
+      </c>
+      <c r="H21">
+        <v>0.01116005810137644</v>
+      </c>
+      <c r="I21">
+        <v>0.183353081439364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001847490018639251</v>
+        <v>-0.01092382168716062</v>
       </c>
       <c r="C22">
-        <v>0.06542284400921614</v>
+        <v>-0.102193931973477</v>
       </c>
       <c r="D22">
-        <v>0.2066061135707633</v>
+        <v>-0.1437270332323819</v>
       </c>
       <c r="E22">
-        <v>-0.2051900099456742</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.1853062645244432</v>
+      </c>
+      <c r="F22">
+        <v>0.2933252107803718</v>
+      </c>
+      <c r="G22">
+        <v>0.1296719897817211</v>
+      </c>
+      <c r="H22">
+        <v>-0.2273238667857594</v>
+      </c>
+      <c r="I22">
+        <v>-0.4246194741792608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001880168358472346</v>
+        <v>-0.007607151573317674</v>
       </c>
       <c r="C23">
-        <v>0.06673036494154171</v>
+        <v>-0.10518259125637</v>
       </c>
       <c r="D23">
-        <v>0.2062531194420264</v>
+        <v>-0.1463298188945109</v>
       </c>
       <c r="E23">
-        <v>-0.2042048658816934</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.1826748194262073</v>
+      </c>
+      <c r="F23">
+        <v>0.2881711755855036</v>
+      </c>
+      <c r="G23">
+        <v>0.1231588948117841</v>
+      </c>
+      <c r="H23">
+        <v>-0.2171243453296663</v>
+      </c>
+      <c r="I23">
+        <v>-0.3973370802425817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.01364703888333535</v>
+        <v>0.01326494066794885</v>
       </c>
       <c r="C24">
-        <v>0.06272466810580832</v>
+        <v>-0.07424566117365293</v>
       </c>
       <c r="D24">
-        <v>0.05359710988721699</v>
+        <v>-0.01045833362988648</v>
       </c>
       <c r="E24">
-        <v>0.003772426316125028</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05442546563957297</v>
+      </c>
+      <c r="F24">
+        <v>-0.0006590909575511395</v>
+      </c>
+      <c r="G24">
+        <v>0.005563469072259952</v>
+      </c>
+      <c r="H24">
+        <v>0.02718457476767396</v>
+      </c>
+      <c r="I24">
+        <v>0.05789428981298678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01736903360465736</v>
+        <v>0.01806353657345</v>
       </c>
       <c r="C25">
-        <v>0.05374406405020391</v>
+        <v>-0.06738985969318122</v>
       </c>
       <c r="D25">
-        <v>0.04344783449489902</v>
+        <v>-0.01367532353861898</v>
       </c>
       <c r="E25">
-        <v>-0.008690444638093738</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.04077406530044399</v>
+      </c>
+      <c r="F25">
+        <v>0.002886096099382651</v>
+      </c>
+      <c r="G25">
+        <v>0.01005097282924658</v>
+      </c>
+      <c r="H25">
+        <v>0.03340483879536717</v>
+      </c>
+      <c r="I25">
+        <v>0.03576291348365918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.007214074637955018</v>
+        <v>0.01726472141043724</v>
       </c>
       <c r="C26">
-        <v>0.03061810497783986</v>
+        <v>-0.05015196669431025</v>
       </c>
       <c r="D26">
-        <v>0.05269423100307059</v>
+        <v>0.006206100482432668</v>
       </c>
       <c r="E26">
-        <v>-0.01491032061823482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.08286943709931037</v>
+      </c>
+      <c r="F26">
+        <v>0.03392431282749711</v>
+      </c>
+      <c r="G26">
+        <v>-0.006161448736543768</v>
+      </c>
+      <c r="H26">
+        <v>0.03229378085557087</v>
+      </c>
+      <c r="I26">
+        <v>0.1256170486877007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2986651421025357</v>
+        <v>0.3108833457527043</v>
       </c>
       <c r="C28">
-        <v>-0.1426318460878965</v>
+        <v>0.1053127656284459</v>
       </c>
       <c r="D28">
-        <v>-0.04789983876106093</v>
+        <v>0.01184675239182372</v>
       </c>
       <c r="E28">
-        <v>-0.03323613223029283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04326465444600502</v>
+      </c>
+      <c r="F28">
+        <v>0.06557368088033146</v>
+      </c>
+      <c r="G28">
+        <v>0.03540312012092703</v>
+      </c>
+      <c r="H28">
+        <v>-0.02926223422273435</v>
+      </c>
+      <c r="I28">
+        <v>0.0568170939792407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.005679222453653505</v>
+        <v>0.004900572166069833</v>
       </c>
       <c r="C29">
-        <v>0.02948950542418202</v>
+        <v>-0.05858284165021144</v>
       </c>
       <c r="D29">
-        <v>0.06964233768442657</v>
+        <v>-0.03072293611140227</v>
       </c>
       <c r="E29">
-        <v>-0.02808138367858159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1129605521752978</v>
+      </c>
+      <c r="F29">
+        <v>0.0238525089103562</v>
+      </c>
+      <c r="G29">
+        <v>-0.05200534020504455</v>
+      </c>
+      <c r="H29">
+        <v>0.09603499423843243</v>
+      </c>
+      <c r="I29">
+        <v>0.1776479881445959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02854213948849767</v>
+        <v>0.020852253093951</v>
       </c>
       <c r="C30">
-        <v>0.09525423136089679</v>
+        <v>-0.1203681109094525</v>
       </c>
       <c r="D30">
-        <v>0.1382337478900365</v>
+        <v>-0.04577735348443868</v>
       </c>
       <c r="E30">
-        <v>-0.07222523830879007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.1192354636213061</v>
+      </c>
+      <c r="F30">
+        <v>0.05590406490796453</v>
+      </c>
+      <c r="G30">
+        <v>0.02048945676200634</v>
+      </c>
+      <c r="H30">
+        <v>0.002765194997414488</v>
+      </c>
+      <c r="I30">
+        <v>0.02652395188535263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.01580933150010418</v>
+        <v>0.01066213890274716</v>
       </c>
       <c r="C31">
-        <v>0.08919129084564041</v>
+        <v>-0.09824743165605687</v>
       </c>
       <c r="D31">
-        <v>0.03170186396390996</v>
+        <v>0.004013813208734205</v>
       </c>
       <c r="E31">
-        <v>0.02688625364622328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02834701229886577</v>
+      </c>
+      <c r="F31">
+        <v>0.003381840859666836</v>
+      </c>
+      <c r="G31">
+        <v>-0.001494689776879459</v>
+      </c>
+      <c r="H31">
+        <v>-0.02064821885482305</v>
+      </c>
+      <c r="I31">
+        <v>0.05773436871239633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02519984982085639</v>
+        <v>0.01901272468846752</v>
       </c>
       <c r="C32">
-        <v>0.05088694112261773</v>
+        <v>-0.06135407409724933</v>
       </c>
       <c r="D32">
-        <v>0.09932522812231917</v>
+        <v>-0.03033335471014141</v>
       </c>
       <c r="E32">
-        <v>-0.1069614714267024</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.06555513228907918</v>
+      </c>
+      <c r="F32">
+        <v>0.1094843342764779</v>
+      </c>
+      <c r="G32">
+        <v>-0.03808358810996236</v>
+      </c>
+      <c r="H32">
+        <v>0.01980612675593591</v>
+      </c>
+      <c r="I32">
+        <v>0.08288621943409921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.007271648236428918</v>
+        <v>0.009562623266140872</v>
       </c>
       <c r="C33">
-        <v>0.06182520251252448</v>
+        <v>-0.08955809105732124</v>
       </c>
       <c r="D33">
-        <v>0.08400468728045317</v>
+        <v>-0.03928804975003987</v>
       </c>
       <c r="E33">
-        <v>-0.01891690967425707</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.08615086188825433</v>
+      </c>
+      <c r="F33">
+        <v>0.01525883690503699</v>
+      </c>
+      <c r="G33">
+        <v>-0.0006883310268304034</v>
+      </c>
+      <c r="H33">
+        <v>0.03056853371428916</v>
+      </c>
+      <c r="I33">
+        <v>0.06122242213319669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.0115606659703233</v>
+        <v>0.01334674064925483</v>
       </c>
       <c r="C34">
-        <v>0.05371503683754555</v>
+        <v>-0.05779020792287651</v>
       </c>
       <c r="D34">
-        <v>0.05877664706968453</v>
+        <v>-0.01121716861504194</v>
       </c>
       <c r="E34">
-        <v>0.03030588391503582</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.04421012408813411</v>
+      </c>
+      <c r="F34">
+        <v>-0.02331233139428989</v>
+      </c>
+      <c r="G34">
+        <v>-0.006969158126898668</v>
+      </c>
+      <c r="H34">
+        <v>0.009214103911250595</v>
+      </c>
+      <c r="I34">
+        <v>0.02399611697562578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001911841073514609</v>
+        <v>0.005264338948379983</v>
       </c>
       <c r="C35">
-        <v>0.002099943885297191</v>
+        <v>-0.02441199055442945</v>
       </c>
       <c r="D35">
-        <v>0.008831263018221059</v>
+        <v>-0.0125868696658443</v>
       </c>
       <c r="E35">
-        <v>-0.004920488460426092</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.04064591139834683</v>
+      </c>
+      <c r="F35">
+        <v>0.01791104916369532</v>
+      </c>
+      <c r="G35">
+        <v>-0.01117276531279878</v>
+      </c>
+      <c r="H35">
+        <v>0.05668650454079106</v>
+      </c>
+      <c r="I35">
+        <v>0.1006529363627585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006448173154097902</v>
+        <v>0.00994387261120671</v>
       </c>
       <c r="C36">
-        <v>0.02924459067794895</v>
+        <v>-0.04144474715555792</v>
       </c>
       <c r="D36">
-        <v>0.04268303724635755</v>
+        <v>-0.004038158183258009</v>
       </c>
       <c r="E36">
-        <v>-0.02940265033459342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.06561940886179891</v>
+      </c>
+      <c r="F36">
+        <v>0.03539487065610337</v>
+      </c>
+      <c r="G36">
+        <v>-0.003296167331929568</v>
+      </c>
+      <c r="H36">
+        <v>0.03058959258903408</v>
+      </c>
+      <c r="I36">
+        <v>0.07286630706729547</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.005292578644917112</v>
+        <v>0.006999379440178471</v>
       </c>
       <c r="C38">
-        <v>0.01550794061643305</v>
+        <v>-0.04216856300273947</v>
       </c>
       <c r="D38">
-        <v>0.06538231306685806</v>
+        <v>-0.0307788870119198</v>
       </c>
       <c r="E38">
-        <v>-0.008107193952936907</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.07873357632192785</v>
+      </c>
+      <c r="F38">
+        <v>0.01351436952638851</v>
+      </c>
+      <c r="G38">
+        <v>0.05000074136186267</v>
+      </c>
+      <c r="H38">
+        <v>-0.001015189260231836</v>
+      </c>
+      <c r="I38">
+        <v>0.08075243974983846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01660103317678253</v>
+        <v>0.01203302247333151</v>
       </c>
       <c r="C39">
-        <v>0.07638243948280056</v>
+        <v>-0.1057221677199152</v>
       </c>
       <c r="D39">
-        <v>0.1087661087404255</v>
+        <v>-0.02448279973903008</v>
       </c>
       <c r="E39">
-        <v>-0.02108662320605632</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.09723167311934873</v>
+      </c>
+      <c r="F39">
+        <v>-0.007570824144146916</v>
+      </c>
+      <c r="G39">
+        <v>-0.008327446688491976</v>
+      </c>
+      <c r="H39">
+        <v>0.03523857743071306</v>
+      </c>
+      <c r="I39">
+        <v>0.05651547242215871</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.006082237467763682</v>
+        <v>0.01035217273376752</v>
       </c>
       <c r="C40">
-        <v>0.01975184042565016</v>
+        <v>-0.04844882861883158</v>
       </c>
       <c r="D40">
-        <v>0.09223412034842711</v>
+        <v>-0.05397412091858032</v>
       </c>
       <c r="E40">
-        <v>0.005320658212135908</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.1222159424495418</v>
+      </c>
+      <c r="F40">
+        <v>-0.006374441063178533</v>
+      </c>
+      <c r="G40">
+        <v>-0.02450111719542687</v>
+      </c>
+      <c r="H40">
+        <v>0.04035612244692864</v>
+      </c>
+      <c r="I40">
+        <v>0.00846957288868397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.009312394127505062</v>
+        <v>0.01777287982072796</v>
       </c>
       <c r="C41">
-        <v>0.02409118758819049</v>
+        <v>-0.0437203575461537</v>
       </c>
       <c r="D41">
-        <v>0.01869057342903149</v>
+        <v>-0.01183853201996442</v>
       </c>
       <c r="E41">
-        <v>0.02501196606876898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02080331837508637</v>
+      </c>
+      <c r="F41">
+        <v>-0.01462255582476671</v>
+      </c>
+      <c r="G41">
+        <v>0.006797395782280708</v>
+      </c>
+      <c r="H41">
+        <v>0.004098781342198889</v>
+      </c>
+      <c r="I41">
+        <v>0.04110640677252005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.003767922174423377</v>
+        <v>0.00843680767636425</v>
       </c>
       <c r="C43">
-        <v>0.01866206327861924</v>
+        <v>-0.03529964417886596</v>
       </c>
       <c r="D43">
-        <v>0.0372444012594055</v>
+        <v>-0.01189147663837068</v>
       </c>
       <c r="E43">
-        <v>0.008842264507239824</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.04455811944307557</v>
+      </c>
+      <c r="F43">
+        <v>-0.002329703538625498</v>
+      </c>
+      <c r="G43">
+        <v>0.01491066937689866</v>
+      </c>
+      <c r="H43">
+        <v>0.01934646589938826</v>
+      </c>
+      <c r="I43">
+        <v>0.05507218338069114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01980984282818652</v>
+        <v>0.008125665582057346</v>
       </c>
       <c r="C44">
-        <v>0.05085789256932832</v>
+        <v>-0.07327094120668765</v>
       </c>
       <c r="D44">
-        <v>0.08394679067194294</v>
+        <v>-0.02457599508781592</v>
       </c>
       <c r="E44">
-        <v>-0.07971854314304702</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.1025120275109547</v>
+      </c>
+      <c r="F44">
+        <v>0.04600807094169678</v>
+      </c>
+      <c r="G44">
+        <v>0.01207017241201129</v>
+      </c>
+      <c r="H44">
+        <v>-0.001454986781809367</v>
+      </c>
+      <c r="I44">
+        <v>0.03371385431972691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.0008706989199779054</v>
+        <v>-0.0005395993997858745</v>
       </c>
       <c r="C46">
-        <v>0.03945071457334007</v>
+        <v>-0.05351669104415959</v>
       </c>
       <c r="D46">
-        <v>0.06879648675918683</v>
+        <v>-0.0140211695589429</v>
       </c>
       <c r="E46">
-        <v>-0.01731883246631673</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0855338786883393</v>
+      </c>
+      <c r="F46">
+        <v>0.01595774396424668</v>
+      </c>
+      <c r="G46">
+        <v>-0.0069277665882393</v>
+      </c>
+      <c r="H46">
+        <v>0.05994848214669563</v>
+      </c>
+      <c r="I46">
+        <v>0.1136010271896895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.04571554722711304</v>
+        <v>0.02880798340790224</v>
       </c>
       <c r="C47">
-        <v>0.1158781949800653</v>
+        <v>-0.1148716953880403</v>
       </c>
       <c r="D47">
-        <v>0.03729098911765298</v>
+        <v>0.0104828389280096</v>
       </c>
       <c r="E47">
-        <v>0.02316088643442764</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01446290525337106</v>
+      </c>
+      <c r="F47">
+        <v>-0.004293536665110241</v>
+      </c>
+      <c r="G47">
+        <v>0.01039017581852802</v>
+      </c>
+      <c r="H47">
+        <v>-0.0004448727201825666</v>
+      </c>
+      <c r="I47">
+        <v>0.08788875603388256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.008826785338025183</v>
+        <v>0.01432042615450425</v>
       </c>
       <c r="C48">
-        <v>0.03226792882603238</v>
+        <v>-0.04735571160157265</v>
       </c>
       <c r="D48">
-        <v>0.04278058033788448</v>
+        <v>0.004091334748363328</v>
       </c>
       <c r="E48">
-        <v>-0.02224699234031297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.07486435022069171</v>
+      </c>
+      <c r="F48">
+        <v>0.04557239842103913</v>
+      </c>
+      <c r="G48">
+        <v>0.001857957119668933</v>
+      </c>
+      <c r="H48">
+        <v>0.04118031462385684</v>
+      </c>
+      <c r="I48">
+        <v>0.1192581477492111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002889335402423478</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.006633884721427646</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.006770796440530961</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.006343730580127835</v>
+      </c>
+      <c r="F49">
+        <v>-0.01273678416667272</v>
+      </c>
+      <c r="G49">
+        <v>-0.008501174465834812</v>
+      </c>
+      <c r="H49">
+        <v>0.01277068283358086</v>
+      </c>
+      <c r="I49">
+        <v>-0.009733846596174203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.01440508348794422</v>
+        <v>0.01180801396290617</v>
       </c>
       <c r="C50">
-        <v>0.05448600656279612</v>
+        <v>-0.07232036088614684</v>
       </c>
       <c r="D50">
-        <v>0.04337810336800396</v>
+        <v>-0.01533833968116828</v>
       </c>
       <c r="E50">
-        <v>0.001513595966548828</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03433646253645529</v>
+      </c>
+      <c r="F50">
+        <v>0.01290336503119712</v>
+      </c>
+      <c r="G50">
+        <v>0.009718835705996774</v>
+      </c>
+      <c r="H50">
+        <v>-0.004824807868425265</v>
+      </c>
+      <c r="I50">
+        <v>0.05783635191175774</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.00565867247152815</v>
+        <v>-0.004859395107250176</v>
       </c>
       <c r="C51">
-        <v>0.01800487931174101</v>
+        <v>-0.02967718940421004</v>
       </c>
       <c r="D51">
-        <v>0.06488053421316035</v>
+        <v>-0.01405475534643533</v>
       </c>
       <c r="E51">
-        <v>-0.0571785543073574</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0578029586362319</v>
+      </c>
+      <c r="F51">
+        <v>0.04898399110772892</v>
+      </c>
+      <c r="G51">
+        <v>-0.01418768100973984</v>
+      </c>
+      <c r="H51">
+        <v>0.008720673938776706</v>
+      </c>
+      <c r="I51">
+        <v>0.1048926753825528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.08927101673177465</v>
+        <v>0.06346100057569307</v>
       </c>
       <c r="C53">
-        <v>0.1541044753507399</v>
+        <v>-0.1627674701780657</v>
       </c>
       <c r="D53">
-        <v>0.0003015232581554006</v>
+        <v>0.04160715858428635</v>
       </c>
       <c r="E53">
-        <v>0.03483020851444786</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04641699258538151</v>
+      </c>
+      <c r="F53">
+        <v>-0.02690707954803609</v>
+      </c>
+      <c r="G53">
+        <v>0.01309043247866705</v>
+      </c>
+      <c r="H53">
+        <v>-0.04145225681338437</v>
+      </c>
+      <c r="I53">
+        <v>0.02017675731686117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.007975515994562418</v>
+        <v>0.01323051797418153</v>
       </c>
       <c r="C54">
-        <v>0.02989809296195275</v>
+        <v>-0.05167713413403752</v>
       </c>
       <c r="D54">
-        <v>0.07762294918827765</v>
+        <v>-0.04236756905840645</v>
       </c>
       <c r="E54">
-        <v>-0.02027809764915504</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.05909391065053281</v>
+      </c>
+      <c r="F54">
+        <v>0.01330109078979157</v>
+      </c>
+      <c r="G54">
+        <v>0.006305587029167075</v>
+      </c>
+      <c r="H54">
+        <v>0.01229851225168129</v>
+      </c>
+      <c r="I54">
+        <v>0.09121029314452719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.06233782174734664</v>
+        <v>0.03947940845103116</v>
       </c>
       <c r="C55">
-        <v>0.111034726493325</v>
+        <v>-0.1146220481322788</v>
       </c>
       <c r="D55">
-        <v>-0.003674747749014004</v>
+        <v>0.04968557651818396</v>
       </c>
       <c r="E55">
-        <v>0.04868788648131965</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02344414016464391</v>
+      </c>
+      <c r="F55">
+        <v>-0.03259444135694813</v>
+      </c>
+      <c r="G55">
+        <v>0.00136008244143968</v>
+      </c>
+      <c r="H55">
+        <v>-0.04240689748379611</v>
+      </c>
+      <c r="I55">
+        <v>0.02793438333692089</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.09773535339764519</v>
+        <v>0.06102438084871479</v>
       </c>
       <c r="C56">
-        <v>0.1665438094065287</v>
+        <v>-0.1827005187295974</v>
       </c>
       <c r="D56">
-        <v>0.02360280005767807</v>
+        <v>0.05136804434371816</v>
       </c>
       <c r="E56">
-        <v>0.09355969983005152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03701107252302098</v>
+      </c>
+      <c r="F56">
+        <v>-0.06254298992972879</v>
+      </c>
+      <c r="G56">
+        <v>0.01237191674535166</v>
+      </c>
+      <c r="H56">
+        <v>-0.1231810715641827</v>
+      </c>
+      <c r="I56">
+        <v>0.0208341361863063</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02060810770412091</v>
+        <v>0.01055714804546235</v>
       </c>
       <c r="C58">
-        <v>0.07108231164311567</v>
+        <v>-0.1163341308706502</v>
       </c>
       <c r="D58">
-        <v>0.2182909994385198</v>
+        <v>-0.1271748003304464</v>
       </c>
       <c r="E58">
-        <v>-0.2399514151920825</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.1657138436140654</v>
+      </c>
+      <c r="F58">
+        <v>0.2712148137226126</v>
+      </c>
+      <c r="G58">
+        <v>0.06391096348876937</v>
+      </c>
+      <c r="H58">
+        <v>-0.1253767518046702</v>
+      </c>
+      <c r="I58">
+        <v>-0.04899456082434885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.23577641285444</v>
+        <v>0.2681771426178489</v>
       </c>
       <c r="C59">
-        <v>-0.08600142351380984</v>
+        <v>0.05488274167051619</v>
       </c>
       <c r="D59">
-        <v>0.0485209454061947</v>
+        <v>-0.02045196575921817</v>
       </c>
       <c r="E59">
-        <v>-0.04651124449883649</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02854947664717242</v>
+      </c>
+      <c r="F59">
+        <v>0.03103378762133655</v>
+      </c>
+      <c r="G59">
+        <v>-0.01972272212275549</v>
+      </c>
+      <c r="H59">
+        <v>0.001742240662804752</v>
+      </c>
+      <c r="I59">
+        <v>-0.03779803778995001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1526430409161538</v>
+        <v>0.1533308802350887</v>
       </c>
       <c r="C60">
-        <v>0.1202465638006886</v>
+        <v>-0.1550037187333365</v>
       </c>
       <c r="D60">
-        <v>0.08616594172317706</v>
+        <v>-0.02369987450204922</v>
       </c>
       <c r="E60">
-        <v>0.1217972154652628</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.08398925811078763</v>
+      </c>
+      <c r="F60">
+        <v>-0.2258784186957849</v>
+      </c>
+      <c r="G60">
+        <v>-0.104897261366</v>
+      </c>
+      <c r="H60">
+        <v>0.1685732451426269</v>
+      </c>
+      <c r="I60">
+        <v>-0.2851980387798729</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02177067550710597</v>
+        <v>0.01826993325952253</v>
       </c>
       <c r="C61">
-        <v>0.06389013015418205</v>
+        <v>-0.09097087823778822</v>
       </c>
       <c r="D61">
-        <v>0.07382211043094546</v>
+        <v>-0.01546856103156932</v>
       </c>
       <c r="E61">
-        <v>0.00710272377144335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.07648453888183328</v>
+      </c>
+      <c r="F61">
+        <v>-0.02008504266179731</v>
+      </c>
+      <c r="G61">
+        <v>0.004271885328724428</v>
+      </c>
+      <c r="H61">
+        <v>0.0273450019296527</v>
+      </c>
+      <c r="I61">
+        <v>0.06604492686921623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0004194050771888493</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001081819277190537</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.0005265841512770062</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.0007052931621608095</v>
+      </c>
+      <c r="F62">
+        <v>0.002807756912118487</v>
+      </c>
+      <c r="G62">
+        <v>-5.772685137984291e-06</v>
+      </c>
+      <c r="H62">
+        <v>-0.0007630937783529506</v>
+      </c>
+      <c r="I62">
+        <v>0.003117895930745061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.003703024107128201</v>
+        <v>0.01769546098488455</v>
       </c>
       <c r="C63">
-        <v>0.04614519916949943</v>
+        <v>-0.06371045707844632</v>
       </c>
       <c r="D63">
-        <v>0.06196365663338152</v>
+        <v>-0.005315066374779798</v>
       </c>
       <c r="E63">
-        <v>-0.00676882202454526</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0761677245929875</v>
+      </c>
+      <c r="F63">
+        <v>0.004067404420531353</v>
+      </c>
+      <c r="G63">
+        <v>-0.003877495250741728</v>
+      </c>
+      <c r="H63">
+        <v>0.03026311851096669</v>
+      </c>
+      <c r="I63">
+        <v>0.07758564827908011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.03225218146550515</v>
+        <v>0.01749026087955939</v>
       </c>
       <c r="C64">
-        <v>0.1078851468573035</v>
+        <v>-0.1068730150188704</v>
       </c>
       <c r="D64">
-        <v>0.02189319287406218</v>
+        <v>0.009924195796302888</v>
       </c>
       <c r="E64">
-        <v>0.01014093847585742</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02690176209765324</v>
+      </c>
+      <c r="F64">
+        <v>0.01701386423440348</v>
+      </c>
+      <c r="G64">
+        <v>0.01609209779040724</v>
+      </c>
+      <c r="H64">
+        <v>0.06233102403463791</v>
+      </c>
+      <c r="I64">
+        <v>-0.01502867044221226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01884828835026582</v>
+        <v>0.02345861107445926</v>
       </c>
       <c r="C65">
-        <v>0.03955165327369851</v>
+        <v>-0.06576977602046058</v>
       </c>
       <c r="D65">
-        <v>0.08747742683167573</v>
+        <v>-0.05362483090776315</v>
       </c>
       <c r="E65">
-        <v>-0.01327459159437406</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.09791832726390132</v>
+      </c>
+      <c r="F65">
+        <v>-0.001563897987200914</v>
+      </c>
+      <c r="G65">
+        <v>0.001656312608104762</v>
+      </c>
+      <c r="H65">
+        <v>0.08514677831499953</v>
+      </c>
+      <c r="I65">
+        <v>-0.02352938487697566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.0225236325035371</v>
+        <v>0.0136299720845821</v>
       </c>
       <c r="C66">
-        <v>0.09459409940896053</v>
+        <v>-0.1308501888986831</v>
       </c>
       <c r="D66">
-        <v>0.1426539663660156</v>
+        <v>-0.0560726926561274</v>
       </c>
       <c r="E66">
-        <v>-0.03666783947602522</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.1071365941296887</v>
+      </c>
+      <c r="F66">
+        <v>0.004081937759687552</v>
+      </c>
+      <c r="G66">
+        <v>0.002285006989517183</v>
+      </c>
+      <c r="H66">
+        <v>0.00798894138635536</v>
+      </c>
+      <c r="I66">
+        <v>0.0527735031631094</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01873731490922166</v>
+        <v>0.0181080793268947</v>
       </c>
       <c r="C67">
-        <v>0.01675947876246664</v>
+        <v>-0.04101552564634747</v>
       </c>
       <c r="D67">
-        <v>0.03228421686805645</v>
+        <v>-0.0074542883724267</v>
       </c>
       <c r="E67">
-        <v>0.03436710375004307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.06257510602345111</v>
+      </c>
+      <c r="F67">
+        <v>-0.02830202448613119</v>
+      </c>
+      <c r="G67">
+        <v>0.04258756099021426</v>
+      </c>
+      <c r="H67">
+        <v>0.01322851626127994</v>
+      </c>
+      <c r="I67">
+        <v>0.06325578696568403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2318193419513241</v>
+        <v>0.2780041758738597</v>
       </c>
       <c r="C68">
-        <v>-0.1011135386581891</v>
+        <v>0.06848854290197624</v>
       </c>
       <c r="D68">
-        <v>0.01616223733671016</v>
+        <v>-0.03883870975225294</v>
       </c>
       <c r="E68">
-        <v>-0.0590799267738806</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01540243453161869</v>
+      </c>
+      <c r="F68">
+        <v>0.05822736870866051</v>
+      </c>
+      <c r="G68">
+        <v>0.01265050262587047</v>
+      </c>
+      <c r="H68">
+        <v>-0.03257054181623494</v>
+      </c>
+      <c r="I68">
+        <v>-0.03024653640781182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.04170213167612982</v>
+        <v>0.01687192747271125</v>
       </c>
       <c r="C69">
-        <v>0.1210598211791473</v>
+        <v>-0.1048205902257106</v>
       </c>
       <c r="D69">
-        <v>0.04894775014570114</v>
+        <v>0.02414361662375062</v>
       </c>
       <c r="E69">
-        <v>0.04453947915309089</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.024987683950367</v>
+      </c>
+      <c r="F69">
+        <v>-0.02109594708919444</v>
+      </c>
+      <c r="G69">
+        <v>0.008282678913652352</v>
+      </c>
+      <c r="H69">
+        <v>-0.01008162050180565</v>
+      </c>
+      <c r="I69">
+        <v>0.04924815728604073</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.246483791296875</v>
+        <v>0.266844679822567</v>
       </c>
       <c r="C71">
-        <v>-0.1208353096632392</v>
+        <v>0.08325518708893889</v>
       </c>
       <c r="D71">
-        <v>0.0178511281953762</v>
+        <v>-0.01726157747124007</v>
       </c>
       <c r="E71">
-        <v>-0.03054508775443376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02008604248097421</v>
+      </c>
+      <c r="F71">
+        <v>0.02489597288659619</v>
+      </c>
+      <c r="G71">
+        <v>0.02845805435534529</v>
+      </c>
+      <c r="H71">
+        <v>-0.005482795807351933</v>
+      </c>
+      <c r="I71">
+        <v>0.0610338499999473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.08499155415009606</v>
+        <v>0.06450289335197922</v>
       </c>
       <c r="C72">
-        <v>0.1155661048055618</v>
+        <v>-0.1363223110077783</v>
       </c>
       <c r="D72">
-        <v>0.09745100631234085</v>
+        <v>-0.01433181356217423</v>
       </c>
       <c r="E72">
-        <v>0.02521441848774881</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.05640785366733501</v>
+      </c>
+      <c r="F72">
+        <v>-0.03855070840235292</v>
+      </c>
+      <c r="G72">
+        <v>-0.009172577478460344</v>
+      </c>
+      <c r="H72">
+        <v>0.01721557779337868</v>
+      </c>
+      <c r="I72">
+        <v>-0.02602027496737917</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1199922309257852</v>
+        <v>0.144963377255365</v>
       </c>
       <c r="C73">
-        <v>0.09130913815922075</v>
+        <v>-0.1578752503323341</v>
       </c>
       <c r="D73">
-        <v>0.1152796102723369</v>
+        <v>-0.04016027325283983</v>
       </c>
       <c r="E73">
-        <v>0.1225570992471652</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.1656547086159112</v>
+      </c>
+      <c r="F73">
+        <v>-0.322001808217617</v>
+      </c>
+      <c r="G73">
+        <v>-0.1180676844287043</v>
+      </c>
+      <c r="H73">
+        <v>0.3068473361602247</v>
+      </c>
+      <c r="I73">
+        <v>-0.2745821899331385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.07599299816514905</v>
+        <v>0.05038513599896376</v>
       </c>
       <c r="C74">
-        <v>0.1353869210275253</v>
+        <v>-0.1359764101001287</v>
       </c>
       <c r="D74">
-        <v>-0.04690192013722164</v>
+        <v>0.06426125177428629</v>
       </c>
       <c r="E74">
-        <v>0.05561837327507751</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04461406676417148</v>
+      </c>
+      <c r="F74">
+        <v>-0.01991215639831624</v>
+      </c>
+      <c r="G74">
+        <v>0.01458844798913193</v>
+      </c>
+      <c r="H74">
+        <v>-0.03209376881577508</v>
+      </c>
+      <c r="I74">
+        <v>0.01968210189461672</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1773459873611283</v>
+        <v>0.0982681992152046</v>
       </c>
       <c r="C75">
-        <v>0.2238145478170714</v>
+        <v>-0.234850813404702</v>
       </c>
       <c r="D75">
-        <v>-0.02029489779821194</v>
+        <v>0.1006230597929049</v>
       </c>
       <c r="E75">
-        <v>0.2254467706290146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1084675229674984</v>
+      </c>
+      <c r="F75">
+        <v>-0.1564636218885367</v>
+      </c>
+      <c r="G75">
+        <v>0.11666583223827</v>
+      </c>
+      <c r="H75">
+        <v>-0.2277914823959426</v>
+      </c>
+      <c r="I75">
+        <v>0.0352557219021489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.09624001626748292</v>
+        <v>0.05738002326298414</v>
       </c>
       <c r="C76">
-        <v>0.1622587524017811</v>
+        <v>-0.1726371200168181</v>
       </c>
       <c r="D76">
-        <v>0.01134754054582661</v>
+        <v>0.06380009210325845</v>
       </c>
       <c r="E76">
-        <v>0.1350886978762242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02884165736686354</v>
+      </c>
+      <c r="F76">
+        <v>-0.09507457238321494</v>
+      </c>
+      <c r="G76">
+        <v>0.008014396633412215</v>
+      </c>
+      <c r="H76">
+        <v>-0.08494472017228834</v>
+      </c>
+      <c r="I76">
+        <v>0.04870910995047086</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.03563824503848078</v>
+        <v>0.02706597402896175</v>
       </c>
       <c r="C77">
-        <v>0.09164290052833299</v>
+        <v>-0.1549351125534559</v>
       </c>
       <c r="D77">
-        <v>0.305309843061903</v>
+        <v>-0.8397211891919634</v>
       </c>
       <c r="E77">
-        <v>-0.3144447855033339</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.4912398304203041</v>
+      </c>
+      <c r="F77">
+        <v>-0.07203179949472732</v>
+      </c>
+      <c r="G77">
+        <v>0.02541168394931998</v>
+      </c>
+      <c r="H77">
+        <v>0.05534378124015413</v>
+      </c>
+      <c r="I77">
+        <v>0.06495066490198777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.033316080776958</v>
+        <v>0.02770379816087305</v>
       </c>
       <c r="C78">
-        <v>0.08878347710090867</v>
+        <v>-0.1035916152908674</v>
       </c>
       <c r="D78">
-        <v>0.1246428415113259</v>
+        <v>0.002150113235316989</v>
       </c>
       <c r="E78">
-        <v>-0.07257121835579447</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.09862687974165997</v>
+      </c>
+      <c r="F78">
+        <v>0.05750567678697502</v>
+      </c>
+      <c r="G78">
+        <v>-0.02659930919213934</v>
+      </c>
+      <c r="H78">
+        <v>-0.08446213045571339</v>
+      </c>
+      <c r="I78">
+        <v>0.121155969742432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09736191261694506</v>
+        <v>0.05748761572884212</v>
       </c>
       <c r="C79">
-        <v>0.4084520810476244</v>
+        <v>-0.2978609584534332</v>
       </c>
       <c r="D79">
-        <v>-0.6208674218224908</v>
+        <v>0.2966724967922688</v>
       </c>
       <c r="E79">
-        <v>-0.5938055872176358</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.4574974771589532</v>
+      </c>
+      <c r="F79">
+        <v>0.5433282641610272</v>
+      </c>
+      <c r="G79">
+        <v>-0.05333590521827622</v>
+      </c>
+      <c r="H79">
+        <v>0.4761690269326119</v>
+      </c>
+      <c r="I79">
+        <v>-0.1256270573061032</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.002097188770375583</v>
+        <v>0.009933334706480709</v>
       </c>
       <c r="C80">
-        <v>0.05965385186511564</v>
+        <v>-0.05818779088189935</v>
       </c>
       <c r="D80">
-        <v>0.04385367801697966</v>
+        <v>0.005262136771265028</v>
       </c>
       <c r="E80">
-        <v>0.04693458181179555</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06950895169725947</v>
+      </c>
+      <c r="F80">
+        <v>-0.02610586470236909</v>
+      </c>
+      <c r="G80">
+        <v>-0.06412231157842063</v>
+      </c>
+      <c r="H80">
+        <v>0.02256573004276793</v>
+      </c>
+      <c r="I80">
+        <v>-0.0301560584275963</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.08175259827463441</v>
+        <v>0.03642947200795334</v>
       </c>
       <c r="C81">
-        <v>0.149671619703086</v>
+        <v>-0.1514415199740994</v>
       </c>
       <c r="D81">
-        <v>-0.05248131037382815</v>
+        <v>0.07040482802080671</v>
       </c>
       <c r="E81">
-        <v>0.09962634546250661</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05927466900913823</v>
+      </c>
+      <c r="F81">
+        <v>-0.01669781637162724</v>
+      </c>
+      <c r="G81">
+        <v>0.01936682815548747</v>
+      </c>
+      <c r="H81">
+        <v>-0.07232525920255682</v>
+      </c>
+      <c r="I81">
+        <v>0.06078145064224973</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.143743643090818</v>
+        <v>0.07779817127954337</v>
       </c>
       <c r="C82">
-        <v>0.2134937978246245</v>
+        <v>-0.1995614325236744</v>
       </c>
       <c r="D82">
-        <v>-0.02611174874500151</v>
+        <v>0.09980644772873123</v>
       </c>
       <c r="E82">
-        <v>0.1715656714351047</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07053196350040708</v>
+      </c>
+      <c r="F82">
+        <v>-0.08919608215266016</v>
+      </c>
+      <c r="G82">
+        <v>0.006318714741335133</v>
+      </c>
+      <c r="H82">
+        <v>-0.1272210743655507</v>
+      </c>
+      <c r="I82">
+        <v>0.08091525023412909</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004282226390901521</v>
+        <v>0.004078728116724827</v>
       </c>
       <c r="C83">
-        <v>0.05798297768457657</v>
+        <v>-0.02049815807387825</v>
       </c>
       <c r="D83">
-        <v>0.05005112687465758</v>
+        <v>-0.03913789395956697</v>
       </c>
       <c r="E83">
-        <v>-0.03800606673376183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.03895164846542578</v>
+      </c>
+      <c r="F83">
+        <v>0.1006589091716612</v>
+      </c>
+      <c r="G83">
+        <v>-0.9114951376247805</v>
+      </c>
+      <c r="H83">
+        <v>-0.2652929119188945</v>
+      </c>
+      <c r="I83">
+        <v>-0.04614272855402984</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.001763872036273437</v>
+        <v>-0.002960906546570417</v>
       </c>
       <c r="C84">
-        <v>0.01414634822480289</v>
+        <v>-0.02840742367403789</v>
       </c>
       <c r="D84">
-        <v>0.0398874574651971</v>
+        <v>-0.01175169224898922</v>
       </c>
       <c r="E84">
-        <v>-0.03019902220812131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.05423589831869408</v>
+      </c>
+      <c r="F84">
+        <v>0.06201314832040055</v>
+      </c>
+      <c r="G84">
+        <v>0.05488344000514386</v>
+      </c>
+      <c r="H84">
+        <v>-0.03469749934506872</v>
+      </c>
+      <c r="I84">
+        <v>0.07034185779510506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.09215662596049091</v>
+        <v>0.05076326039330275</v>
       </c>
       <c r="C85">
-        <v>0.1828245323602808</v>
+        <v>-0.1742451634443871</v>
       </c>
       <c r="D85">
-        <v>-0.07844844036056292</v>
+        <v>0.1187859268909257</v>
       </c>
       <c r="E85">
-        <v>0.08046697847224699</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09088327081701633</v>
+      </c>
+      <c r="F85">
+        <v>-0.03033927998387177</v>
+      </c>
+      <c r="G85">
+        <v>0.01627496510027909</v>
+      </c>
+      <c r="H85">
+        <v>-0.07776752434720929</v>
+      </c>
+      <c r="I85">
+        <v>0.02438936688143155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02694076564527416</v>
+        <v>0.01584112479839424</v>
       </c>
       <c r="C86">
-        <v>0.03277301807822886</v>
+        <v>-0.06138221947466944</v>
       </c>
       <c r="D86">
-        <v>0.0955693615581607</v>
+        <v>-0.0478592326305443</v>
       </c>
       <c r="E86">
-        <v>-0.05033954440384687</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04257830245320531</v>
+      </c>
+      <c r="F86">
+        <v>0.0743206696032277</v>
+      </c>
+      <c r="G86">
+        <v>0.03790036191084815</v>
+      </c>
+      <c r="H86">
+        <v>-0.02659386866903846</v>
+      </c>
+      <c r="I86">
+        <v>0.06197399646341185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02792115302082183</v>
+        <v>0.01691715110790407</v>
       </c>
       <c r="C87">
-        <v>0.06991314751556892</v>
+        <v>-0.09296081012297301</v>
       </c>
       <c r="D87">
-        <v>0.1406905036066583</v>
+        <v>-0.07182263708010538</v>
       </c>
       <c r="E87">
-        <v>-0.09313282750446002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.09708377906046056</v>
+      </c>
+      <c r="F87">
+        <v>0.08288746220653792</v>
+      </c>
+      <c r="G87">
+        <v>0.0170576919468232</v>
+      </c>
+      <c r="H87">
+        <v>-0.040782398556612</v>
+      </c>
+      <c r="I87">
+        <v>0.05272533372752591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.04073584040537372</v>
+        <v>0.0384556399619771</v>
       </c>
       <c r="C88">
-        <v>0.07479781142664783</v>
+        <v>-0.08387006031737025</v>
       </c>
       <c r="D88">
-        <v>-0.0006708299044785274</v>
+        <v>0.0101663576392676</v>
       </c>
       <c r="E88">
-        <v>0.06245291462655272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01630767177574743</v>
+      </c>
+      <c r="F88">
+        <v>-0.02814504817873518</v>
+      </c>
+      <c r="G88">
+        <v>0.004707363069287975</v>
+      </c>
+      <c r="H88">
+        <v>0.01381431148389759</v>
+      </c>
+      <c r="I88">
+        <v>0.01862065733365767</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4052830280855704</v>
+        <v>0.4048198129691674</v>
       </c>
       <c r="C89">
-        <v>-0.2241010909298311</v>
+        <v>0.1524481292648299</v>
       </c>
       <c r="D89">
-        <v>-0.02521442892935356</v>
+        <v>-0.02095447542279215</v>
       </c>
       <c r="E89">
-        <v>-0.0825610556556447</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.009753392333246669</v>
+      </c>
+      <c r="F89">
+        <v>0.1059791627946671</v>
+      </c>
+      <c r="G89">
+        <v>-0.07850464899973927</v>
+      </c>
+      <c r="H89">
+        <v>-0.07375107943156288</v>
+      </c>
+      <c r="I89">
+        <v>0.08260128315399856</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.298672484391179</v>
+        <v>0.318673661836109</v>
       </c>
       <c r="C90">
-        <v>-0.1600503087487518</v>
+        <v>0.1006621231956813</v>
       </c>
       <c r="D90">
-        <v>0.06302853305285035</v>
+        <v>-0.03352917632142895</v>
       </c>
       <c r="E90">
-        <v>-0.05894115675116794</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.04296135965996616</v>
+      </c>
+      <c r="F90">
+        <v>0.01802230622162656</v>
+      </c>
+      <c r="G90">
+        <v>0.01326384958452825</v>
+      </c>
+      <c r="H90">
+        <v>-0.02718534115630419</v>
+      </c>
+      <c r="I90">
+        <v>-0.007252361807504006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1080308214506922</v>
+        <v>0.06778716399309219</v>
       </c>
       <c r="C91">
-        <v>0.2085523107583295</v>
+        <v>-0.1827016149217492</v>
       </c>
       <c r="D91">
-        <v>-0.08285811574031715</v>
+        <v>0.08375056359925982</v>
       </c>
       <c r="E91">
-        <v>0.05089795609353619</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1159324414051874</v>
+      </c>
+      <c r="F91">
+        <v>-0.01279403268629599</v>
+      </c>
+      <c r="G91">
+        <v>-0.0250655936582834</v>
+      </c>
+      <c r="H91">
+        <v>-0.04937168332460814</v>
+      </c>
+      <c r="I91">
+        <v>0.01206497836064373</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3156561730712298</v>
+        <v>0.3431112857751051</v>
       </c>
       <c r="C92">
-        <v>-0.1760763771527241</v>
+        <v>0.1316735671973814</v>
       </c>
       <c r="D92">
-        <v>-0.02390848512689121</v>
+        <v>-0.02962645158301312</v>
       </c>
       <c r="E92">
-        <v>-0.08966474769770016</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01872876285996417</v>
+      </c>
+      <c r="F92">
+        <v>0.07457669547719596</v>
+      </c>
+      <c r="G92">
+        <v>0.09321509109879873</v>
+      </c>
+      <c r="H92">
+        <v>0.03506523767463902</v>
+      </c>
+      <c r="I92">
+        <v>0.01645462771531094</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3114747782726988</v>
+        <v>0.3224326334161476</v>
       </c>
       <c r="C93">
-        <v>-0.1653241143060269</v>
+        <v>0.1222165354529124</v>
       </c>
       <c r="D93">
-        <v>-0.04776788885265441</v>
+        <v>0.02338574937972769</v>
       </c>
       <c r="E93">
-        <v>-0.01713587502163328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01845736489720128</v>
+      </c>
+      <c r="F93">
+        <v>0.03594605841244692</v>
+      </c>
+      <c r="G93">
+        <v>0.01362555430613805</v>
+      </c>
+      <c r="H93">
+        <v>0.002414649468665622</v>
+      </c>
+      <c r="I93">
+        <v>0.03538770870193246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1814932952574062</v>
+        <v>0.1165170036725276</v>
       </c>
       <c r="C94">
-        <v>0.2528240385176068</v>
+        <v>-0.2518647619924061</v>
       </c>
       <c r="D94">
-        <v>-0.07731614961256689</v>
+        <v>0.1569990098680285</v>
       </c>
       <c r="E94">
-        <v>0.3038053839911044</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.2049237806183507</v>
+      </c>
+      <c r="F94">
+        <v>-0.1842320971684304</v>
+      </c>
+      <c r="G94">
+        <v>0.08923931637214873</v>
+      </c>
+      <c r="H94">
+        <v>-0.425510939913148</v>
+      </c>
+      <c r="I94">
+        <v>-0.06162861714570951</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.04090680895461678</v>
+        <v>0.03878570064460122</v>
       </c>
       <c r="C95">
-        <v>0.04214440826372381</v>
+        <v>-0.09130621485905384</v>
       </c>
       <c r="D95">
-        <v>0.06050018468284531</v>
+        <v>-0.04573679188891086</v>
       </c>
       <c r="E95">
-        <v>0.06943554533671915</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07527366243935923</v>
+      </c>
+      <c r="F95">
+        <v>-0.1028114075162047</v>
+      </c>
+      <c r="G95">
+        <v>0.03486339649811009</v>
+      </c>
+      <c r="H95">
+        <v>0.04410641445679505</v>
+      </c>
+      <c r="I95">
+        <v>0.09136666067528332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.00268418162062331</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.002390481285366354</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01722319271826782</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.001794245224123749</v>
+      </c>
+      <c r="F97">
+        <v>-0.01086804768845714</v>
+      </c>
+      <c r="G97">
+        <v>0.01829808974052979</v>
+      </c>
+      <c r="H97">
+        <v>0.0009401500867292611</v>
+      </c>
+      <c r="I97">
+        <v>-0.0001636770952193186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1083944252925698</v>
+        <v>0.1306700830050592</v>
       </c>
       <c r="C98">
-        <v>0.09302630950872413</v>
+        <v>-0.1422835703374499</v>
       </c>
       <c r="D98">
-        <v>0.1154477282289096</v>
+        <v>-0.01562596305951704</v>
       </c>
       <c r="E98">
-        <v>0.06887402913052673</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1407801379741022</v>
+      </c>
+      <c r="F98">
+        <v>-0.2468024450238472</v>
+      </c>
+      <c r="G98">
+        <v>-0.07872538782097184</v>
+      </c>
+      <c r="H98">
+        <v>0.2638589895434302</v>
+      </c>
+      <c r="I98">
+        <v>-0.3178530528714541</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.006757307094292671</v>
+        <v>0.005025035799951678</v>
       </c>
       <c r="C101">
-        <v>0.028594261959211</v>
+        <v>-0.05734392139704048</v>
       </c>
       <c r="D101">
-        <v>0.06928816102078862</v>
+        <v>-0.0309979452862066</v>
       </c>
       <c r="E101">
-        <v>-0.0290509288256681</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1116773251215717</v>
+      </c>
+      <c r="F101">
+        <v>0.02390167462442713</v>
+      </c>
+      <c r="G101">
+        <v>-0.05153894762303385</v>
+      </c>
+      <c r="H101">
+        <v>0.09491110307680582</v>
+      </c>
+      <c r="I101">
+        <v>0.1765357931143929</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.067657446465127</v>
+        <v>0.02510730815058285</v>
       </c>
       <c r="C102">
-        <v>0.1197336641610136</v>
+        <v>-0.08660668513518144</v>
       </c>
       <c r="D102">
-        <v>0.004923097603454641</v>
+        <v>0.0424458561469392</v>
       </c>
       <c r="E102">
-        <v>0.08824250771066228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04683672992910965</v>
+      </c>
+      <c r="F102">
+        <v>-0.03955806756179601</v>
+      </c>
+      <c r="G102">
+        <v>-0.01033468754473982</v>
+      </c>
+      <c r="H102">
+        <v>-0.06928933158041654</v>
+      </c>
+      <c r="I102">
+        <v>0.01232335065551569</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
